--- a/docs/lessons.xlsx
+++ b/docs/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="395">
   <si>
     <t>fa_title</t>
   </si>
@@ -64,7 +64,7 @@
     <t>ریاضی عمومی 2</t>
   </si>
   <si>
-    <t>عنوان درس به فارسی:|&lt;h3&gt;&lt;a name="_معادلات_دیفرانسیل"&gt;&lt;/a&gt;معادلات دیفرانسیل</t>
+    <t>معادلات دیفرانسیل</t>
   </si>
   <si>
     <t>مبانی برنامه‌نویسی</t>
@@ -100,7 +100,7 @@
     <t>طراحی و تحلیل الگوریتم‌ها</t>
   </si>
   <si>
-    <t>عنوان درس به فارسی:|&lt;h3&gt;&lt;a name="_کارگاه_کامپیوتر_۲"&gt;&lt;/a&gt;کارگاه کامپیوتر ۲</t>
+    <t>کارگاه کامپیوتر ۲</t>
   </si>
   <si>
     <t>پایگاه داده</t>
@@ -142,7 +142,7 @@
     <t>روش‌های آماری</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;یادگیری آماری مقدماتی</t>
+    <t>یادگیری آماری مقدماتی</t>
   </si>
   <si>
     <t>داده‌کاوی مقدماتی</t>
@@ -157,7 +157,7 @@
     <t>نظریه محاسبه</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;منطق برای علوم کامپیوتر</t>
+    <t>منطق برای علوم کامپیوتر</t>
   </si>
   <si>
     <t>نظریه مقدماتی کد گذاری</t>
@@ -172,7 +172,7 @@
     <t>معناشناسی عملیاتی برنامه‌نویسی</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;` `نظریه بازی</t>
+    <t>` `نظریه بازی</t>
   </si>
   <si>
     <t>آشنایی با نظریه بازی ها</t>
@@ -202,7 +202,7 @@
     <t>آشنایی با یادگیری عمیق</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;اصول مصورسازی داده ها</t>
+    <t>اصول مصورسازی داده ها</t>
   </si>
   <si>
     <t>مبانی کارآفرینی</t>
@@ -226,7 +226,7 @@
     <t>آزمایشگاه ریاضی</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;ریاضیات فازی</t>
+    <t>ریاضیات فازی</t>
   </si>
   <si>
     <t>نظریه گراف و کاربردها</t>
@@ -286,13 +286,13 @@
     <t>کارآموزی</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;آنالیز عددی</t>
+    <t>آنالیز عددی</t>
   </si>
   <si>
     <t>آشنایی با تحلیل کلان داده‌ها</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;مباحثی در الگوریتم‌ها</t>
+    <t>مباحثی در الگوریتم‌ها</t>
   </si>
   <si>
     <t>فرایند های تصادفی</t>
@@ -310,7 +310,7 @@
     <t>مدیریت پروژه‌های فناوری اطلاعات</t>
   </si>
   <si>
-    <t>وان درس به فارسی:|&lt;h3&gt;تحلیل آماری داده ها</t>
+    <t>تحلیل آماری داده ها</t>
   </si>
   <si>
     <t>Calculus I</t>
@@ -604,9 +604,6 @@
     <t>مبانی جبر، مبانی ماتریس و جبرخطی</t>
   </si>
   <si>
-    <t>منطق برای علوم کامپیوتر</t>
-  </si>
-  <si>
     <t>احتمال1</t>
   </si>
   <si>
@@ -617,9 +614,6 @@
   </si>
   <si>
     <t>داده کاوی مقدماتی</t>
-  </si>
-  <si>
-    <t>یادگیری آماری مقدماتی</t>
   </si>
   <si>
     <t>آنالیز ریاضی و مبانی ماتریس‌ها و جبر خطی</t>
@@ -1632,19 +1626,19 @@
         <v>189</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1667,19 +1661,19 @@
         <v>189</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1702,19 +1696,19 @@
         <v>189</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1737,19 +1731,19 @@
         <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1772,19 +1766,19 @@
         <v>189</v>
       </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1807,19 +1801,19 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1842,19 +1836,19 @@
         <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1877,19 +1871,19 @@
         <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1912,16 +1906,16 @@
         <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1944,19 +1938,19 @@
         <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1979,19 +1973,19 @@
         <v>189</v>
       </c>
       <c r="H12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2014,19 +2008,19 @@
         <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2049,19 +2043,19 @@
         <v>189</v>
       </c>
       <c r="H14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2084,19 +2078,19 @@
         <v>189</v>
       </c>
       <c r="H15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2119,19 +2113,19 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2154,16 +2148,16 @@
         <v>189</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2186,19 +2180,19 @@
         <v>189</v>
       </c>
       <c r="H18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2221,19 +2215,19 @@
         <v>189</v>
       </c>
       <c r="H19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2256,19 +2250,19 @@
         <v>189</v>
       </c>
       <c r="H20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2291,19 +2285,19 @@
         <v>189</v>
       </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2326,19 +2320,19 @@
         <v>189</v>
       </c>
       <c r="H22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2361,19 +2355,19 @@
         <v>189</v>
       </c>
       <c r="H23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2396,19 +2390,19 @@
         <v>189</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2431,19 +2425,19 @@
         <v>189</v>
       </c>
       <c r="H25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2466,19 +2460,19 @@
         <v>189</v>
       </c>
       <c r="H26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2501,19 +2495,19 @@
         <v>189</v>
       </c>
       <c r="H27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2536,16 +2530,16 @@
         <v>189</v>
       </c>
       <c r="H28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2568,19 +2562,19 @@
         <v>189</v>
       </c>
       <c r="H29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2603,19 +2597,19 @@
         <v>189</v>
       </c>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2638,19 +2632,19 @@
         <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2673,19 +2667,19 @@
         <v>189</v>
       </c>
       <c r="H32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2708,19 +2702,19 @@
         <v>189</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2743,19 +2737,19 @@
         <v>189</v>
       </c>
       <c r="H34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2778,19 +2772,19 @@
         <v>189</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2813,19 +2807,19 @@
         <v>189</v>
       </c>
       <c r="H36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2848,19 +2842,19 @@
         <v>189</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2883,19 +2877,19 @@
         <v>189</v>
       </c>
       <c r="H38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2912,25 +2906,25 @@
         <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
         <v>189</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2953,19 +2947,19 @@
         <v>189</v>
       </c>
       <c r="H40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2982,25 +2976,25 @@
         <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G41" t="s">
         <v>189</v>
       </c>
       <c r="H41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3017,25 +3011,25 @@
         <v>186</v>
       </c>
       <c r="F42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G42" t="s">
         <v>189</v>
       </c>
       <c r="H42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3058,19 +3052,19 @@
         <v>189</v>
       </c>
       <c r="H43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3093,19 +3087,19 @@
         <v>189</v>
       </c>
       <c r="H44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3128,19 +3122,19 @@
         <v>189</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O45" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3157,22 +3151,22 @@
         <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G46" t="s">
         <v>189</v>
       </c>
       <c r="H46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3195,19 +3189,19 @@
         <v>189</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3224,25 +3218,25 @@
         <v>186</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G48" t="s">
         <v>189</v>
       </c>
       <c r="H48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O48" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3259,25 +3253,25 @@
         <v>186</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>189</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N49" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O49" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3300,19 +3294,19 @@
         <v>189</v>
       </c>
       <c r="H50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O50" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3335,19 +3329,19 @@
         <v>189</v>
       </c>
       <c r="H51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N51" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O51" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3370,19 +3364,19 @@
         <v>189</v>
       </c>
       <c r="H52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3405,19 +3399,19 @@
         <v>189</v>
       </c>
       <c r="H53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O53" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3440,19 +3434,19 @@
         <v>189</v>
       </c>
       <c r="H54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O54" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3475,19 +3469,19 @@
         <v>189</v>
       </c>
       <c r="H55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3510,19 +3504,19 @@
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O56" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3545,19 +3539,19 @@
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O57" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3580,19 +3574,19 @@
         <v>189</v>
       </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O58" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3615,19 +3609,19 @@
         <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3650,19 +3644,19 @@
         <v>189</v>
       </c>
       <c r="H60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O60" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3685,19 +3679,19 @@
         <v>189</v>
       </c>
       <c r="H61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N61" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3720,19 +3714,19 @@
         <v>189</v>
       </c>
       <c r="H62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O62" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3749,25 +3743,25 @@
         <v>186</v>
       </c>
       <c r="F63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
         <v>189</v>
       </c>
       <c r="H63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O63" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3790,19 +3784,19 @@
         <v>189</v>
       </c>
       <c r="H64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3825,19 +3819,19 @@
         <v>189</v>
       </c>
       <c r="H65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3860,19 +3854,19 @@
         <v>189</v>
       </c>
       <c r="H66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3889,25 +3883,25 @@
         <v>186</v>
       </c>
       <c r="F67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G67" t="s">
         <v>189</v>
       </c>
       <c r="H67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N67" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O67" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3930,19 +3924,19 @@
         <v>189</v>
       </c>
       <c r="H68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N68" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3965,19 +3959,19 @@
         <v>189</v>
       </c>
       <c r="H69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4000,19 +3994,19 @@
         <v>189</v>
       </c>
       <c r="H70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O70" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4035,19 +4029,19 @@
         <v>189</v>
       </c>
       <c r="H71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O71" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4064,25 +4058,25 @@
         <v>186</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G72" t="s">
         <v>189</v>
       </c>
       <c r="H72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N72" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O72" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4105,19 +4099,19 @@
         <v>189</v>
       </c>
       <c r="H73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O73" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4140,19 +4134,19 @@
         <v>189</v>
       </c>
       <c r="H74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4175,19 +4169,19 @@
         <v>189</v>
       </c>
       <c r="H75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O75" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4204,25 +4198,25 @@
         <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G76" t="s">
         <v>189</v>
       </c>
       <c r="H76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4239,25 +4233,25 @@
         <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G77" t="s">
         <v>189</v>
       </c>
       <c r="H77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O77" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4274,25 +4268,25 @@
         <v>186</v>
       </c>
       <c r="F78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I78" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O78" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4309,22 +4303,22 @@
         <v>186</v>
       </c>
       <c r="F79" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
         <v>189</v>
       </c>
       <c r="H79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J79" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O79" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4347,19 +4341,19 @@
         <v>189</v>
       </c>
       <c r="H80" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O80" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4376,25 +4370,25 @@
         <v>186</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
         <v>189</v>
       </c>
       <c r="H81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O81" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4411,25 +4405,25 @@
         <v>186</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
         <v>189</v>
       </c>
       <c r="H82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N82" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O82" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4446,25 +4440,25 @@
         <v>186</v>
       </c>
       <c r="F83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
         <v>189</v>
       </c>
       <c r="H83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J83" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O83" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4481,25 +4475,25 @@
         <v>186</v>
       </c>
       <c r="F84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G84" t="s">
         <v>189</v>
       </c>
       <c r="H84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O84" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4522,19 +4516,19 @@
         <v>189</v>
       </c>
       <c r="H85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O85" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4557,19 +4551,19 @@
         <v>189</v>
       </c>
       <c r="H86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I86" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O86" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
